--- a/public/candidats.xlsx
+++ b/public/candidats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joan\Documents\CMPSB\sistema-adjudicacio\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7B33147-3417-4217-B98F-79186CD820B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF40A77-FDE0-4FE7-8F3A-74CC7934CEE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1103" yWindow="1103" windowWidth="16200" windowHeight="9307" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="188">
   <si>
     <t>id</t>
   </si>
@@ -112,9 +112,6 @@
     <t>Sílvia Puig Soler</t>
   </si>
   <si>
-    <t>Roger Vila Mas</t>
-  </si>
-  <si>
     <t>Carles Vidal Serra</t>
   </si>
   <si>
@@ -154,6 +151,87 @@
     <t>Sergi Martín Pujol</t>
   </si>
   <si>
+    <t>Xavier Carreras Sánchez</t>
+  </si>
+  <si>
+    <t>Marta Sánchez Ferrer</t>
+  </si>
+  <si>
+    <t>Gemma Costa Vidal</t>
+  </si>
+  <si>
+    <t>Laura Pujol Pujol</t>
+  </si>
+  <si>
+    <t>Oriol Roca Carreras</t>
+  </si>
+  <si>
+    <t>Anna Carreras Vidal</t>
+  </si>
+  <si>
+    <t>Núria Pujol Costa</t>
+  </si>
+  <si>
+    <t>Xavier Vidal Moreno</t>
+  </si>
+  <si>
+    <t>Joan Vidal Guardiola</t>
+  </si>
+  <si>
+    <t>Clara Carreras Moreno</t>
+  </si>
+  <si>
+    <t>Oriol Guardiola Moreno</t>
+  </si>
+  <si>
+    <t>Oriol Vidal Ferrer</t>
+  </si>
+  <si>
+    <t>Maria Carreras Roca</t>
+  </si>
+  <si>
+    <t>Eva Pujol Costa</t>
+  </si>
+  <si>
+    <t>Laura Costa Pujol</t>
+  </si>
+  <si>
+    <t>Joan Pujol Sánchez</t>
+  </si>
+  <si>
+    <t>Marc Carreras Moreno</t>
+  </si>
+  <si>
+    <t>Oriol Costa Moreno</t>
+  </si>
+  <si>
+    <t>Marc Pujol Moreno</t>
+  </si>
+  <si>
+    <t>Xavier Gómez Costa</t>
+  </si>
+  <si>
+    <t>Roger Gómez Carreras</t>
+  </si>
+  <si>
+    <t>Marta Roca Sánchez</t>
+  </si>
+  <si>
+    <t>Joan Pujol Costa</t>
+  </si>
+  <si>
+    <t>Jordi Vidal Roca</t>
+  </si>
+  <si>
+    <t>Clara Gómez Pujol</t>
+  </si>
+  <si>
+    <t>Núria Carreras Pujol</t>
+  </si>
+  <si>
+    <t>Laura Gómez Costa</t>
+  </si>
+  <si>
     <t>mgarcia@email.com</t>
   </si>
   <si>
@@ -214,9 +292,6 @@
     <t>spuig@email.com</t>
   </si>
   <si>
-    <t>rvila@email.com</t>
-  </si>
-  <si>
     <t>cvidal@email.com</t>
   </si>
   <si>
@@ -253,100 +328,166 @@
     <t>smartin@email.com</t>
   </si>
   <si>
-    <t>654321987</t>
-  </si>
-  <si>
-    <t>634567890</t>
-  </si>
-  <si>
-    <t>612345678</t>
-  </si>
-  <si>
-    <t>678901234</t>
-  </si>
-  <si>
-    <t>645678901</t>
-  </si>
-  <si>
-    <t>623456789</t>
-  </si>
-  <si>
-    <t>678543210</t>
-  </si>
-  <si>
-    <t>656789012</t>
-  </si>
-  <si>
-    <t>667890123</t>
-  </si>
-  <si>
-    <t>634567891</t>
-  </si>
-  <si>
-    <t>612345679</t>
-  </si>
-  <si>
-    <t>645789123</t>
-  </si>
-  <si>
-    <t>623456790</t>
-  </si>
-  <si>
-    <t>667890124</t>
-  </si>
-  <si>
-    <t>656789013</t>
-  </si>
-  <si>
-    <t>634567892</t>
-  </si>
-  <si>
-    <t>612345680</t>
-  </si>
-  <si>
-    <t>612789456</t>
-  </si>
-  <si>
-    <t>678901235</t>
-  </si>
-  <si>
-    <t>645678902</t>
-  </si>
-  <si>
-    <t>623456791</t>
-  </si>
-  <si>
-    <t>667890125</t>
-  </si>
-  <si>
-    <t>656789014</t>
-  </si>
-  <si>
-    <t>612345681</t>
-  </si>
-  <si>
-    <t>678901236</t>
-  </si>
-  <si>
-    <t>698745632</t>
-  </si>
-  <si>
-    <t>645678903</t>
-  </si>
-  <si>
-    <t>623456792</t>
-  </si>
-  <si>
-    <t>667890126</t>
-  </si>
-  <si>
-    <t>656789015</t>
-  </si>
-  <si>
-    <t>634567893</t>
-  </si>
-  <si>
-    <t>612345682</t>
+    <t>xavier.carreras.sánchez@email.com</t>
+  </si>
+  <si>
+    <t>marta.sánchez.ferrer@email.com</t>
+  </si>
+  <si>
+    <t>gemma.costa.vidal@email.com</t>
+  </si>
+  <si>
+    <t>laura.pujol.pujol@email.com</t>
+  </si>
+  <si>
+    <t>oriol.roca.carreras@email.com</t>
+  </si>
+  <si>
+    <t>anna.carreras.vidal@email.com</t>
+  </si>
+  <si>
+    <t>núria.pujol.costa@email.com</t>
+  </si>
+  <si>
+    <t>xavier.vidal.moreno@email.com</t>
+  </si>
+  <si>
+    <t>joan.vidal.guardiola@email.com</t>
+  </si>
+  <si>
+    <t>clara.carreras.moreno@email.com</t>
+  </si>
+  <si>
+    <t>oriol.guardiola.moreno@email.com</t>
+  </si>
+  <si>
+    <t>oriol.vidal.ferrer@email.com</t>
+  </si>
+  <si>
+    <t>maria.carreras.roca@email.com</t>
+  </si>
+  <si>
+    <t>eva.pujol.costa@email.com</t>
+  </si>
+  <si>
+    <t>laura.costa.pujol@email.com</t>
+  </si>
+  <si>
+    <t>joan.pujol.sánchez@email.com</t>
+  </si>
+  <si>
+    <t>marc.carreras.moreno@email.com</t>
+  </si>
+  <si>
+    <t>oriol.costa.moreno@email.com</t>
+  </si>
+  <si>
+    <t>marc.pujol.moreno@email.com</t>
+  </si>
+  <si>
+    <t>xavier.gómez.costa@email.com</t>
+  </si>
+  <si>
+    <t>roger.gómez.carreras@email.com</t>
+  </si>
+  <si>
+    <t>marta.roca.sánchez@email.com</t>
+  </si>
+  <si>
+    <t>joan.pujol.costa@email.com</t>
+  </si>
+  <si>
+    <t>jordi.vidal.roca@email.com</t>
+  </si>
+  <si>
+    <t>clara.gómez.pujol@email.com</t>
+  </si>
+  <si>
+    <t>núria.carreras.pujol@email.com</t>
+  </si>
+  <si>
+    <t>laura.gómez.costa@email.com</t>
+  </si>
+  <si>
+    <t>664328212</t>
+  </si>
+  <si>
+    <t>662016884</t>
+  </si>
+  <si>
+    <t>617414350</t>
+  </si>
+  <si>
+    <t>697023568</t>
+  </si>
+  <si>
+    <t>694460855</t>
+  </si>
+  <si>
+    <t>639670080</t>
+  </si>
+  <si>
+    <t>695232324</t>
+  </si>
+  <si>
+    <t>680758038</t>
+  </si>
+  <si>
+    <t>696888939</t>
+  </si>
+  <si>
+    <t>687071348</t>
+  </si>
+  <si>
+    <t>647554137</t>
+  </si>
+  <si>
+    <t>664866750</t>
+  </si>
+  <si>
+    <t>654955944</t>
+  </si>
+  <si>
+    <t>632690895</t>
+  </si>
+  <si>
+    <t>672022865</t>
+  </si>
+  <si>
+    <t>602685096</t>
+  </si>
+  <si>
+    <t>651057716</t>
+  </si>
+  <si>
+    <t>698555308</t>
+  </si>
+  <si>
+    <t>645020201</t>
+  </si>
+  <si>
+    <t>675676364</t>
+  </si>
+  <si>
+    <t>616614997</t>
+  </si>
+  <si>
+    <t>674460100</t>
+  </si>
+  <si>
+    <t>634437357</t>
+  </si>
+  <si>
+    <t>638370991</t>
+  </si>
+  <si>
+    <t>678779220</t>
+  </si>
+  <si>
+    <t>629413645</t>
+  </si>
+  <si>
+    <t>610695614</t>
   </si>
   <si>
     <t>Medicina</t>
@@ -379,6 +520,24 @@
     <t>Auxiliar d'Infermeria</t>
   </si>
   <si>
+    <t>Geriatria</t>
+  </si>
+  <si>
+    <t>Oncologia</t>
+  </si>
+  <si>
+    <t>Dermatologia</t>
+  </si>
+  <si>
+    <t>Neurologia</t>
+  </si>
+  <si>
+    <t>Cardiologia</t>
+  </si>
+  <si>
+    <t>Endocrinologia</t>
+  </si>
+  <si>
     <t>Grau en Medicina; MIR Medicina Interna</t>
   </si>
   <si>
@@ -401,6 +560,27 @@
   </si>
   <si>
     <t>FP Auxiliar d'Infermeria</t>
+  </si>
+  <si>
+    <t>Grau en Medicina; MIR Geriatria</t>
+  </si>
+  <si>
+    <t>Grau en Medicina; MIR Oncologia</t>
+  </si>
+  <si>
+    <t>Grau en Medicina; MIR Dermatologia</t>
+  </si>
+  <si>
+    <t>Grau en Medicina; MIR Neurologia</t>
+  </si>
+  <si>
+    <t>Grau en Medicina; MIR Cardiologia</t>
+  </si>
+  <si>
+    <t>Grau en Medicina; MIR Endocrinologia</t>
+  </si>
+  <si>
+    <t>Grau en Medicina; MIR Urgències</t>
   </si>
   <si>
     <t>pendent</t>
@@ -410,7 +590,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -420,6 +600,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -462,11 +650,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -805,9 +994,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -851,16 +1042,16 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" t="s">
-        <v>77</v>
+        <v>70</v>
+      </c>
+      <c r="D2">
+        <v>654321987</v>
       </c>
       <c r="E2" t="s">
-        <v>109</v>
+        <v>156</v>
       </c>
       <c r="F2" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="G2">
         <v>95</v>
@@ -869,10 +1060,10 @@
         <v>8</v>
       </c>
       <c r="I2" t="s">
-        <v>119</v>
+        <v>172</v>
       </c>
       <c r="J2" t="s">
-        <v>127</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
@@ -883,16 +1074,16 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" t="s">
-        <v>78</v>
+        <v>71</v>
+      </c>
+      <c r="D3">
+        <v>634567890</v>
       </c>
       <c r="E3" t="s">
-        <v>109</v>
+        <v>156</v>
       </c>
       <c r="F3" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="G3">
         <v>92</v>
@@ -901,10 +1092,10 @@
         <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>119</v>
+        <v>172</v>
       </c>
       <c r="J3" t="s">
-        <v>127</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
@@ -915,16 +1106,16 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" t="s">
-        <v>79</v>
+        <v>72</v>
+      </c>
+      <c r="D4">
+        <v>612345678</v>
       </c>
       <c r="E4" t="s">
-        <v>109</v>
+        <v>156</v>
       </c>
       <c r="F4" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="G4">
         <v>89</v>
@@ -933,10 +1124,10 @@
         <v>5</v>
       </c>
       <c r="I4" t="s">
-        <v>119</v>
+        <v>172</v>
       </c>
       <c r="J4" t="s">
-        <v>127</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
@@ -947,16 +1138,16 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" t="s">
-        <v>80</v>
+        <v>73</v>
+      </c>
+      <c r="D5">
+        <v>678901234</v>
       </c>
       <c r="E5" t="s">
-        <v>109</v>
+        <v>156</v>
       </c>
       <c r="F5" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="G5">
         <v>87</v>
@@ -965,10 +1156,10 @@
         <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>119</v>
+        <v>172</v>
       </c>
       <c r="J5" t="s">
-        <v>127</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
@@ -979,16 +1170,16 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" t="s">
-        <v>81</v>
+        <v>74</v>
+      </c>
+      <c r="D6">
+        <v>645678901</v>
       </c>
       <c r="E6" t="s">
-        <v>109</v>
+        <v>156</v>
       </c>
       <c r="F6" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="G6">
         <v>85</v>
@@ -997,10 +1188,10 @@
         <v>3</v>
       </c>
       <c r="I6" t="s">
-        <v>119</v>
+        <v>172</v>
       </c>
       <c r="J6" t="s">
-        <v>127</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
@@ -1011,16 +1202,16 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" t="s">
-        <v>82</v>
+        <v>75</v>
+      </c>
+      <c r="D7">
+        <v>623456789</v>
       </c>
       <c r="E7" t="s">
-        <v>109</v>
+        <v>156</v>
       </c>
       <c r="F7" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="G7">
         <v>83</v>
@@ -1029,10 +1220,10 @@
         <v>3</v>
       </c>
       <c r="I7" t="s">
-        <v>119</v>
+        <v>172</v>
       </c>
       <c r="J7" t="s">
-        <v>127</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
@@ -1043,16 +1234,16 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" t="s">
-        <v>83</v>
+        <v>76</v>
+      </c>
+      <c r="D8">
+        <v>678543210</v>
       </c>
       <c r="E8" t="s">
-        <v>110</v>
+        <v>157</v>
       </c>
       <c r="F8" t="s">
-        <v>113</v>
+        <v>160</v>
       </c>
       <c r="G8">
         <v>88</v>
@@ -1061,10 +1252,10 @@
         <v>5</v>
       </c>
       <c r="I8" t="s">
-        <v>120</v>
+        <v>173</v>
       </c>
       <c r="J8" t="s">
-        <v>127</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
@@ -1075,16 +1266,16 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" t="s">
-        <v>84</v>
+        <v>77</v>
+      </c>
+      <c r="D9">
+        <v>656789012</v>
       </c>
       <c r="E9" t="s">
-        <v>110</v>
+        <v>157</v>
       </c>
       <c r="F9" t="s">
-        <v>113</v>
+        <v>160</v>
       </c>
       <c r="G9">
         <v>86</v>
@@ -1093,10 +1284,10 @@
         <v>4</v>
       </c>
       <c r="I9" t="s">
-        <v>120</v>
+        <v>173</v>
       </c>
       <c r="J9" t="s">
-        <v>127</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
@@ -1107,16 +1298,16 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" t="s">
-        <v>85</v>
+        <v>78</v>
+      </c>
+      <c r="D10">
+        <v>667890123</v>
       </c>
       <c r="E10" t="s">
-        <v>110</v>
+        <v>157</v>
       </c>
       <c r="F10" t="s">
-        <v>113</v>
+        <v>160</v>
       </c>
       <c r="G10">
         <v>84</v>
@@ -1125,10 +1316,10 @@
         <v>3</v>
       </c>
       <c r="I10" t="s">
-        <v>121</v>
+        <v>174</v>
       </c>
       <c r="J10" t="s">
-        <v>127</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
@@ -1139,16 +1330,16 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" t="s">
-        <v>86</v>
+        <v>79</v>
+      </c>
+      <c r="D11">
+        <v>634567891</v>
       </c>
       <c r="E11" t="s">
-        <v>110</v>
+        <v>157</v>
       </c>
       <c r="F11" t="s">
-        <v>113</v>
+        <v>160</v>
       </c>
       <c r="G11">
         <v>82</v>
@@ -1157,10 +1348,10 @@
         <v>2</v>
       </c>
       <c r="I11" t="s">
-        <v>121</v>
+        <v>174</v>
       </c>
       <c r="J11" t="s">
-        <v>127</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.45">
@@ -1171,16 +1362,16 @@
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" t="s">
-        <v>87</v>
+        <v>80</v>
+      </c>
+      <c r="D12">
+        <v>612345679</v>
       </c>
       <c r="E12" t="s">
-        <v>110</v>
+        <v>157</v>
       </c>
       <c r="F12" t="s">
-        <v>113</v>
+        <v>160</v>
       </c>
       <c r="G12">
         <v>80</v>
@@ -1189,10 +1380,10 @@
         <v>2</v>
       </c>
       <c r="I12" t="s">
-        <v>121</v>
+        <v>174</v>
       </c>
       <c r="J12" t="s">
-        <v>127</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
@@ -1203,16 +1394,16 @@
         <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" t="s">
-        <v>88</v>
+        <v>81</v>
+      </c>
+      <c r="D13">
+        <v>645789123</v>
       </c>
       <c r="E13" t="s">
-        <v>110</v>
+        <v>157</v>
       </c>
       <c r="F13" t="s">
-        <v>114</v>
+        <v>161</v>
       </c>
       <c r="G13">
         <v>90</v>
@@ -1221,10 +1412,10 @@
         <v>7</v>
       </c>
       <c r="I13" t="s">
-        <v>122</v>
+        <v>175</v>
       </c>
       <c r="J13" t="s">
-        <v>127</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
@@ -1235,16 +1426,16 @@
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" t="s">
-        <v>89</v>
+        <v>82</v>
+      </c>
+      <c r="D14">
+        <v>623456790</v>
       </c>
       <c r="E14" t="s">
-        <v>110</v>
+        <v>157</v>
       </c>
       <c r="F14" t="s">
-        <v>114</v>
+        <v>161</v>
       </c>
       <c r="G14">
         <v>87</v>
@@ -1253,10 +1444,10 @@
         <v>5</v>
       </c>
       <c r="I14" t="s">
-        <v>121</v>
+        <v>174</v>
       </c>
       <c r="J14" t="s">
-        <v>127</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
@@ -1267,16 +1458,16 @@
         <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" t="s">
-        <v>90</v>
+        <v>83</v>
+      </c>
+      <c r="D15">
+        <v>667890124</v>
       </c>
       <c r="E15" t="s">
-        <v>110</v>
+        <v>157</v>
       </c>
       <c r="F15" t="s">
-        <v>114</v>
+        <v>161</v>
       </c>
       <c r="G15">
         <v>85</v>
@@ -1285,10 +1476,10 @@
         <v>4</v>
       </c>
       <c r="I15" t="s">
-        <v>121</v>
+        <v>174</v>
       </c>
       <c r="J15" t="s">
-        <v>127</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
@@ -1299,16 +1490,16 @@
         <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" t="s">
-        <v>91</v>
+        <v>84</v>
+      </c>
+      <c r="D16">
+        <v>656789013</v>
       </c>
       <c r="E16" t="s">
-        <v>110</v>
+        <v>157</v>
       </c>
       <c r="F16" t="s">
-        <v>114</v>
+        <v>161</v>
       </c>
       <c r="G16">
         <v>83</v>
@@ -1317,10 +1508,10 @@
         <v>3</v>
       </c>
       <c r="I16" t="s">
-        <v>121</v>
+        <v>174</v>
       </c>
       <c r="J16" t="s">
-        <v>127</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.45">
@@ -1331,16 +1522,16 @@
         <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" t="s">
-        <v>92</v>
+        <v>85</v>
+      </c>
+      <c r="D17">
+        <v>634567892</v>
       </c>
       <c r="E17" t="s">
-        <v>110</v>
+        <v>157</v>
       </c>
       <c r="F17" t="s">
-        <v>114</v>
+        <v>161</v>
       </c>
       <c r="G17">
         <v>81</v>
@@ -1349,10 +1540,10 @@
         <v>2</v>
       </c>
       <c r="I17" t="s">
-        <v>121</v>
+        <v>174</v>
       </c>
       <c r="J17" t="s">
-        <v>127</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.45">
@@ -1363,16 +1554,16 @@
         <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" t="s">
-        <v>93</v>
+        <v>86</v>
+      </c>
+      <c r="D18">
+        <v>612345680</v>
       </c>
       <c r="E18" t="s">
-        <v>110</v>
+        <v>157</v>
       </c>
       <c r="F18" t="s">
-        <v>114</v>
+        <v>161</v>
       </c>
       <c r="G18">
         <v>79</v>
@@ -1381,10 +1572,10 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>121</v>
+        <v>174</v>
       </c>
       <c r="J18" t="s">
-        <v>127</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.45">
@@ -1395,16 +1586,16 @@
         <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" t="s">
-        <v>94</v>
+        <v>87</v>
+      </c>
+      <c r="D19">
+        <v>612789456</v>
       </c>
       <c r="E19" t="s">
-        <v>109</v>
+        <v>156</v>
       </c>
       <c r="F19" t="s">
-        <v>115</v>
+        <v>162</v>
       </c>
       <c r="G19">
         <v>92</v>
@@ -1413,10 +1604,10 @@
         <v>6</v>
       </c>
       <c r="I19" t="s">
-        <v>123</v>
+        <v>176</v>
       </c>
       <c r="J19" t="s">
-        <v>127</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.45">
@@ -1427,16 +1618,16 @@
         <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" t="s">
-        <v>95</v>
+        <v>88</v>
+      </c>
+      <c r="D20">
+        <v>678901235</v>
       </c>
       <c r="E20" t="s">
-        <v>109</v>
+        <v>156</v>
       </c>
       <c r="F20" t="s">
-        <v>115</v>
+        <v>162</v>
       </c>
       <c r="G20">
         <v>89</v>
@@ -1445,10 +1636,10 @@
         <v>5</v>
       </c>
       <c r="I20" t="s">
-        <v>123</v>
+        <v>176</v>
       </c>
       <c r="J20" t="s">
-        <v>127</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.45">
@@ -1459,16 +1650,16 @@
         <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" t="s">
-        <v>96</v>
+        <v>89</v>
+      </c>
+      <c r="D21">
+        <v>645678902</v>
       </c>
       <c r="E21" t="s">
-        <v>109</v>
+        <v>156</v>
       </c>
       <c r="F21" t="s">
-        <v>115</v>
+        <v>162</v>
       </c>
       <c r="G21">
         <v>86</v>
@@ -1477,10 +1668,10 @@
         <v>4</v>
       </c>
       <c r="I21" t="s">
-        <v>123</v>
+        <v>176</v>
       </c>
       <c r="J21" t="s">
-        <v>127</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.45">
@@ -1491,28 +1682,28 @@
         <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" t="s">
-        <v>97</v>
+        <v>90</v>
+      </c>
+      <c r="D22">
+        <v>623456789</v>
       </c>
       <c r="E22" t="s">
-        <v>109</v>
+        <v>156</v>
       </c>
       <c r="F22" t="s">
-        <v>115</v>
+        <v>163</v>
       </c>
       <c r="G22">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="H22">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I22" t="s">
-        <v>123</v>
+        <v>177</v>
       </c>
       <c r="J22" t="s">
-        <v>127</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.45">
@@ -1523,28 +1714,28 @@
         <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>65</v>
-      </c>
-      <c r="D23" t="s">
-        <v>82</v>
+        <v>91</v>
+      </c>
+      <c r="D23">
+        <v>667890125</v>
       </c>
       <c r="E23" t="s">
-        <v>109</v>
+        <v>156</v>
       </c>
       <c r="F23" t="s">
-        <v>116</v>
+        <v>163</v>
       </c>
       <c r="G23">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H23">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I23" t="s">
-        <v>124</v>
+        <v>177</v>
       </c>
       <c r="J23" t="s">
-        <v>127</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.45">
@@ -1555,28 +1746,28 @@
         <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" t="s">
-        <v>98</v>
+        <v>92</v>
+      </c>
+      <c r="D24">
+        <v>656789014</v>
       </c>
       <c r="E24" t="s">
-        <v>109</v>
+        <v>156</v>
       </c>
       <c r="F24" t="s">
-        <v>116</v>
+        <v>163</v>
       </c>
       <c r="G24">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H24">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I24" t="s">
-        <v>124</v>
+        <v>177</v>
       </c>
       <c r="J24" t="s">
-        <v>127</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.45">
@@ -1587,28 +1778,28 @@
         <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" t="s">
-        <v>99</v>
+        <v>93</v>
+      </c>
+      <c r="D25">
+        <v>634567890</v>
       </c>
       <c r="E25" t="s">
-        <v>109</v>
+        <v>156</v>
       </c>
       <c r="F25" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="G25">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H25">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I25" t="s">
-        <v>124</v>
+        <v>178</v>
       </c>
       <c r="J25" t="s">
-        <v>127</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.45">
@@ -1619,28 +1810,28 @@
         <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" t="s">
-        <v>78</v>
+        <v>94</v>
+      </c>
+      <c r="D26">
+        <v>612345681</v>
       </c>
       <c r="E26" t="s">
-        <v>109</v>
+        <v>156</v>
       </c>
       <c r="F26" t="s">
-        <v>117</v>
+        <v>164</v>
       </c>
       <c r="G26">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H26">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I26" t="s">
-        <v>125</v>
+        <v>178</v>
       </c>
       <c r="J26" t="s">
-        <v>127</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.45">
@@ -1651,28 +1842,28 @@
         <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>69</v>
-      </c>
-      <c r="D27" t="s">
-        <v>100</v>
+        <v>95</v>
+      </c>
+      <c r="D27">
+        <v>678901236</v>
       </c>
       <c r="E27" t="s">
-        <v>109</v>
+        <v>156</v>
       </c>
       <c r="F27" t="s">
-        <v>117</v>
+        <v>164</v>
       </c>
       <c r="G27">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H27">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I27" t="s">
-        <v>125</v>
+        <v>178</v>
       </c>
       <c r="J27" t="s">
-        <v>127</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.45">
@@ -1683,28 +1874,28 @@
         <v>36</v>
       </c>
       <c r="C28" t="s">
-        <v>70</v>
-      </c>
-      <c r="D28" t="s">
-        <v>101</v>
+        <v>82</v>
+      </c>
+      <c r="D28">
+        <v>698745632</v>
       </c>
       <c r="E28" t="s">
-        <v>109</v>
+        <v>158</v>
       </c>
       <c r="F28" t="s">
-        <v>117</v>
+        <v>165</v>
       </c>
       <c r="G28">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I28" t="s">
-        <v>125</v>
+        <v>179</v>
       </c>
       <c r="J28" t="s">
-        <v>127</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.45">
@@ -1715,28 +1906,28 @@
         <v>37</v>
       </c>
       <c r="C29" t="s">
-        <v>56</v>
-      </c>
-      <c r="D29" t="s">
-        <v>102</v>
+        <v>96</v>
+      </c>
+      <c r="D29">
+        <v>645678903</v>
       </c>
       <c r="E29" t="s">
-        <v>111</v>
+        <v>158</v>
       </c>
       <c r="F29" t="s">
-        <v>118</v>
+        <v>165</v>
       </c>
       <c r="G29">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I29" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="J29" t="s">
-        <v>127</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.45">
@@ -1747,28 +1938,28 @@
         <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>71</v>
-      </c>
-      <c r="D30" t="s">
-        <v>103</v>
+        <v>97</v>
+      </c>
+      <c r="D30">
+        <v>623456792</v>
       </c>
       <c r="E30" t="s">
-        <v>111</v>
+        <v>158</v>
       </c>
       <c r="F30" t="s">
-        <v>118</v>
+        <v>165</v>
       </c>
       <c r="G30">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H30">
         <v>2</v>
       </c>
       <c r="I30" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="J30" t="s">
-        <v>127</v>
+        <v>187</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.45">
@@ -1779,28 +1970,28 @@
         <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>72</v>
-      </c>
-      <c r="D31" t="s">
-        <v>104</v>
+        <v>98</v>
+      </c>
+      <c r="D31">
+        <v>667890126</v>
       </c>
       <c r="E31" t="s">
-        <v>111</v>
+        <v>158</v>
       </c>
       <c r="F31" t="s">
-        <v>118</v>
+        <v>165</v>
       </c>
       <c r="G31">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="J31" t="s">
-        <v>127</v>
+        <v>187</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.45">
@@ -1811,28 +2002,28 @@
         <v>40</v>
       </c>
       <c r="C32" t="s">
-        <v>73</v>
-      </c>
-      <c r="D32" t="s">
-        <v>105</v>
+        <v>99</v>
+      </c>
+      <c r="D32">
+        <v>656789015</v>
       </c>
       <c r="E32" t="s">
-        <v>111</v>
+        <v>158</v>
       </c>
       <c r="F32" t="s">
-        <v>118</v>
+        <v>165</v>
       </c>
       <c r="G32">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="J32" t="s">
-        <v>127</v>
+        <v>187</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.45">
@@ -1843,28 +2034,28 @@
         <v>41</v>
       </c>
       <c r="C33" t="s">
-        <v>74</v>
-      </c>
-      <c r="D33" t="s">
-        <v>106</v>
+        <v>100</v>
+      </c>
+      <c r="D33">
+        <v>634567893</v>
       </c>
       <c r="E33" t="s">
-        <v>111</v>
+        <v>158</v>
       </c>
       <c r="F33" t="s">
-        <v>118</v>
+        <v>165</v>
       </c>
       <c r="G33">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H33">
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="J33" t="s">
-        <v>127</v>
+        <v>187</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.45">
@@ -1875,28 +2066,28 @@
         <v>42</v>
       </c>
       <c r="C34" t="s">
-        <v>75</v>
-      </c>
-      <c r="D34" t="s">
-        <v>107</v>
+        <v>101</v>
+      </c>
+      <c r="D34">
+        <v>612345682</v>
       </c>
       <c r="E34" t="s">
-        <v>111</v>
+        <v>158</v>
       </c>
       <c r="F34" t="s">
-        <v>118</v>
+        <v>165</v>
       </c>
       <c r="G34">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="J34" t="s">
-        <v>127</v>
+        <v>187</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.45">
@@ -1907,31 +2098,870 @@
         <v>43</v>
       </c>
       <c r="C35" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="D35" t="s">
+        <v>129</v>
+      </c>
+      <c r="E35" t="s">
+        <v>156</v>
+      </c>
+      <c r="F35" t="s">
+        <v>159</v>
+      </c>
+      <c r="G35">
+        <v>85</v>
+      </c>
+      <c r="H35">
+        <v>7</v>
+      </c>
+      <c r="I35" t="s">
+        <v>172</v>
+      </c>
+      <c r="J35" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" t="s">
+        <v>103</v>
+      </c>
+      <c r="D36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E36" t="s">
+        <v>156</v>
+      </c>
+      <c r="F36" t="s">
+        <v>166</v>
+      </c>
+      <c r="G36">
+        <v>97</v>
+      </c>
+      <c r="H36">
+        <v>8</v>
+      </c>
+      <c r="I36" t="s">
+        <v>180</v>
+      </c>
+      <c r="J36" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" t="s">
+        <v>104</v>
+      </c>
+      <c r="D37" t="s">
+        <v>131</v>
+      </c>
+      <c r="E37" t="s">
+        <v>156</v>
+      </c>
+      <c r="F37" t="s">
+        <v>167</v>
+      </c>
+      <c r="G37">
+        <v>82</v>
+      </c>
+      <c r="H37">
+        <v>11</v>
+      </c>
+      <c r="I37" t="s">
+        <v>181</v>
+      </c>
+      <c r="J37" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" t="s">
+        <v>105</v>
+      </c>
+      <c r="D38" t="s">
+        <v>132</v>
+      </c>
+      <c r="E38" t="s">
+        <v>156</v>
+      </c>
+      <c r="F38" t="s">
+        <v>169</v>
+      </c>
+      <c r="G38">
+        <v>96</v>
+      </c>
+      <c r="H38">
+        <v>6</v>
+      </c>
+      <c r="I38" t="s">
+        <v>183</v>
+      </c>
+      <c r="J38" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" t="s">
+        <v>106</v>
+      </c>
+      <c r="D39" t="s">
+        <v>133</v>
+      </c>
+      <c r="E39" t="s">
+        <v>156</v>
+      </c>
+      <c r="F39" t="s">
+        <v>167</v>
+      </c>
+      <c r="G39">
+        <v>85</v>
+      </c>
+      <c r="H39">
+        <v>4</v>
+      </c>
+      <c r="I39" t="s">
+        <v>181</v>
+      </c>
+      <c r="J39" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" t="s">
+        <v>107</v>
+      </c>
+      <c r="D40" t="s">
+        <v>134</v>
+      </c>
+      <c r="E40" t="s">
+        <v>156</v>
+      </c>
+      <c r="F40" t="s">
+        <v>166</v>
+      </c>
+      <c r="G40">
+        <v>89</v>
+      </c>
+      <c r="H40">
+        <v>5</v>
+      </c>
+      <c r="I40" t="s">
+        <v>180</v>
+      </c>
+      <c r="J40" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" t="s">
         <v>108</v>
       </c>
-      <c r="E35" t="s">
+      <c r="D41" t="s">
+        <v>135</v>
+      </c>
+      <c r="E41" t="s">
+        <v>156</v>
+      </c>
+      <c r="F41" t="s">
+        <v>168</v>
+      </c>
+      <c r="G41">
+        <v>82</v>
+      </c>
+      <c r="H41">
+        <v>12</v>
+      </c>
+      <c r="I41" t="s">
+        <v>182</v>
+      </c>
+      <c r="J41" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" t="s">
+        <v>109</v>
+      </c>
+      <c r="D42" t="s">
+        <v>136</v>
+      </c>
+      <c r="E42" t="s">
+        <v>156</v>
+      </c>
+      <c r="F42" t="s">
+        <v>170</v>
+      </c>
+      <c r="G42">
+        <v>87</v>
+      </c>
+      <c r="H42">
+        <v>15</v>
+      </c>
+      <c r="I42" t="s">
+        <v>184</v>
+      </c>
+      <c r="J42" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" t="s">
+        <v>110</v>
+      </c>
+      <c r="D43" t="s">
+        <v>137</v>
+      </c>
+      <c r="E43" t="s">
+        <v>156</v>
+      </c>
+      <c r="F43" t="s">
+        <v>171</v>
+      </c>
+      <c r="G43">
+        <v>99</v>
+      </c>
+      <c r="H43">
+        <v>15</v>
+      </c>
+      <c r="I43" t="s">
+        <v>185</v>
+      </c>
+      <c r="J43" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" t="s">
         <v>111</v>
       </c>
-      <c r="F35" t="s">
+      <c r="D44" t="s">
+        <v>138</v>
+      </c>
+      <c r="E44" t="s">
+        <v>156</v>
+      </c>
+      <c r="F44" t="s">
+        <v>170</v>
+      </c>
+      <c r="G44">
+        <v>96</v>
+      </c>
+      <c r="H44">
+        <v>5</v>
+      </c>
+      <c r="I44" t="s">
+        <v>184</v>
+      </c>
+      <c r="J44" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" t="s">
+        <v>112</v>
+      </c>
+      <c r="D45" t="s">
+        <v>139</v>
+      </c>
+      <c r="E45" t="s">
+        <v>156</v>
+      </c>
+      <c r="F45" t="s">
+        <v>169</v>
+      </c>
+      <c r="G45">
+        <v>87</v>
+      </c>
+      <c r="H45">
+        <v>3</v>
+      </c>
+      <c r="I45" t="s">
+        <v>183</v>
+      </c>
+      <c r="J45" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" t="s">
+        <v>113</v>
+      </c>
+      <c r="D46" t="s">
+        <v>140</v>
+      </c>
+      <c r="E46" t="s">
+        <v>156</v>
+      </c>
+      <c r="F46" t="s">
+        <v>161</v>
+      </c>
+      <c r="G46">
+        <v>85</v>
+      </c>
+      <c r="H46">
+        <v>2</v>
+      </c>
+      <c r="I46" t="s">
+        <v>186</v>
+      </c>
+      <c r="J46" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" t="s">
+        <v>114</v>
+      </c>
+      <c r="D47" t="s">
+        <v>141</v>
+      </c>
+      <c r="E47" t="s">
+        <v>156</v>
+      </c>
+      <c r="F47" t="s">
+        <v>170</v>
+      </c>
+      <c r="G47">
+        <v>88</v>
+      </c>
+      <c r="H47">
+        <v>13</v>
+      </c>
+      <c r="I47" t="s">
+        <v>184</v>
+      </c>
+      <c r="J47" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" t="s">
+        <v>115</v>
+      </c>
+      <c r="D48" t="s">
+        <v>142</v>
+      </c>
+      <c r="E48" t="s">
+        <v>156</v>
+      </c>
+      <c r="F48" t="s">
+        <v>171</v>
+      </c>
+      <c r="G48">
+        <v>87</v>
+      </c>
+      <c r="H48">
+        <v>12</v>
+      </c>
+      <c r="I48" t="s">
+        <v>185</v>
+      </c>
+      <c r="J48" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49" t="s">
+        <v>116</v>
+      </c>
+      <c r="D49" t="s">
+        <v>143</v>
+      </c>
+      <c r="E49" t="s">
+        <v>156</v>
+      </c>
+      <c r="F49" t="s">
+        <v>159</v>
+      </c>
+      <c r="G49">
+        <v>88</v>
+      </c>
+      <c r="H49">
+        <v>13</v>
+      </c>
+      <c r="I49" t="s">
+        <v>172</v>
+      </c>
+      <c r="J49" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" t="s">
+        <v>117</v>
+      </c>
+      <c r="D50" t="s">
+        <v>144</v>
+      </c>
+      <c r="E50" t="s">
+        <v>156</v>
+      </c>
+      <c r="F50" t="s">
+        <v>170</v>
+      </c>
+      <c r="G50">
+        <v>98</v>
+      </c>
+      <c r="H50">
+        <v>6</v>
+      </c>
+      <c r="I50" t="s">
+        <v>184</v>
+      </c>
+      <c r="J50" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>59</v>
+      </c>
+      <c r="C51" t="s">
         <v>118</v>
       </c>
-      <c r="G35">
-        <v>70</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35" t="s">
+      <c r="D51" t="s">
+        <v>145</v>
+      </c>
+      <c r="E51" t="s">
+        <v>156</v>
+      </c>
+      <c r="F51" t="s">
+        <v>162</v>
+      </c>
+      <c r="G51">
+        <v>84</v>
+      </c>
+      <c r="H51">
+        <v>4</v>
+      </c>
+      <c r="I51" t="s">
+        <v>176</v>
+      </c>
+      <c r="J51" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" t="s">
+        <v>119</v>
+      </c>
+      <c r="D52" t="s">
+        <v>146</v>
+      </c>
+      <c r="E52" t="s">
+        <v>156</v>
+      </c>
+      <c r="F52" t="s">
+        <v>169</v>
+      </c>
+      <c r="G52">
+        <v>92</v>
+      </c>
+      <c r="H52">
+        <v>8</v>
+      </c>
+      <c r="I52" t="s">
+        <v>183</v>
+      </c>
+      <c r="J52" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>61</v>
+      </c>
+      <c r="C53" t="s">
+        <v>120</v>
+      </c>
+      <c r="D53" t="s">
+        <v>147</v>
+      </c>
+      <c r="E53" t="s">
+        <v>156</v>
+      </c>
+      <c r="F53" t="s">
+        <v>161</v>
+      </c>
+      <c r="G53">
+        <v>89</v>
+      </c>
+      <c r="H53">
+        <v>13</v>
+      </c>
+      <c r="I53" t="s">
+        <v>186</v>
+      </c>
+      <c r="J53" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>62</v>
+      </c>
+      <c r="C54" t="s">
+        <v>121</v>
+      </c>
+      <c r="D54" t="s">
+        <v>148</v>
+      </c>
+      <c r="E54" t="s">
+        <v>156</v>
+      </c>
+      <c r="F54" t="s">
+        <v>169</v>
+      </c>
+      <c r="G54">
+        <v>91</v>
+      </c>
+      <c r="H54">
+        <v>14</v>
+      </c>
+      <c r="I54" t="s">
+        <v>183</v>
+      </c>
+      <c r="J54" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>63</v>
+      </c>
+      <c r="C55" t="s">
+        <v>122</v>
+      </c>
+      <c r="D55" t="s">
+        <v>149</v>
+      </c>
+      <c r="E55" t="s">
+        <v>156</v>
+      </c>
+      <c r="F55" t="s">
+        <v>159</v>
+      </c>
+      <c r="G55">
+        <v>90</v>
+      </c>
+      <c r="H55">
+        <v>8</v>
+      </c>
+      <c r="I55" t="s">
+        <v>172</v>
+      </c>
+      <c r="J55" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>64</v>
+      </c>
+      <c r="C56" t="s">
+        <v>123</v>
+      </c>
+      <c r="D56" t="s">
+        <v>150</v>
+      </c>
+      <c r="E56" t="s">
+        <v>156</v>
+      </c>
+      <c r="F56" t="s">
+        <v>168</v>
+      </c>
+      <c r="G56">
+        <v>100</v>
+      </c>
+      <c r="H56">
+        <v>12</v>
+      </c>
+      <c r="I56" t="s">
+        <v>182</v>
+      </c>
+      <c r="J56" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>65</v>
+      </c>
+      <c r="C57" t="s">
+        <v>124</v>
+      </c>
+      <c r="D57" t="s">
+        <v>151</v>
+      </c>
+      <c r="E57" t="s">
+        <v>156</v>
+      </c>
+      <c r="F57" t="s">
+        <v>159</v>
+      </c>
+      <c r="G57">
+        <v>99</v>
+      </c>
+      <c r="H57">
+        <v>3</v>
+      </c>
+      <c r="I57" t="s">
+        <v>172</v>
+      </c>
+      <c r="J57" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>66</v>
+      </c>
+      <c r="C58" t="s">
+        <v>125</v>
+      </c>
+      <c r="D58" t="s">
+        <v>152</v>
+      </c>
+      <c r="E58" t="s">
+        <v>156</v>
+      </c>
+      <c r="F58" t="s">
+        <v>162</v>
+      </c>
+      <c r="G58">
+        <v>84</v>
+      </c>
+      <c r="H58">
+        <v>7</v>
+      </c>
+      <c r="I58" t="s">
+        <v>176</v>
+      </c>
+      <c r="J58" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>67</v>
+      </c>
+      <c r="C59" t="s">
         <v>126</v>
       </c>
-      <c r="J35" t="s">
+      <c r="D59" t="s">
+        <v>153</v>
+      </c>
+      <c r="E59" t="s">
+        <v>156</v>
+      </c>
+      <c r="F59" t="s">
+        <v>166</v>
+      </c>
+      <c r="G59">
+        <v>89</v>
+      </c>
+      <c r="H59">
+        <v>5</v>
+      </c>
+      <c r="I59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J59" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>68</v>
+      </c>
+      <c r="C60" t="s">
         <v>127</v>
       </c>
+      <c r="D60" t="s">
+        <v>154</v>
+      </c>
+      <c r="E60" t="s">
+        <v>156</v>
+      </c>
+      <c r="F60" t="s">
+        <v>161</v>
+      </c>
+      <c r="G60">
+        <v>88</v>
+      </c>
+      <c r="H60">
+        <v>5</v>
+      </c>
+      <c r="I60" t="s">
+        <v>186</v>
+      </c>
+      <c r="J60" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>69</v>
+      </c>
+      <c r="C61" t="s">
+        <v>128</v>
+      </c>
+      <c r="D61" t="s">
+        <v>155</v>
+      </c>
+      <c r="E61" t="s">
+        <v>156</v>
+      </c>
+      <c r="F61" t="s">
+        <v>161</v>
+      </c>
+      <c r="G61">
+        <v>90</v>
+      </c>
+      <c r="H61">
+        <v>11</v>
+      </c>
+      <c r="I61" t="s">
+        <v>186</v>
+      </c>
+      <c r="J61" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="D63" s="2"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J61">
+    <sortCondition ref="A2:A61"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>